--- a/2020-09-02_Recap_Samples_BulkRNA.xlsx
+++ b/2020-09-02_Recap_Samples_BulkRNA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/COHEN/Documents/BulKRNA/AnalysesBioinformatiques/00-Scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/COHEN/Documents/GitHub/Repositories/ProjetTuteure_BulkRNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A89489-D889-634C-80E3-1C5F495D9351}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DCC6E7-279D-E04F-8335-38A9C6727FCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="460" windowWidth="27060" windowHeight="16820" xr2:uid="{9DAC21B7-805B-4C4D-8232-B803550C4E29}"/>
+    <workbookView xWindow="-8760" yWindow="-18960" windowWidth="20040" windowHeight="16840" xr2:uid="{9DAC21B7-805B-4C4D-8232-B803550C4E29}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="108">
   <si>
     <t>Cohort ID</t>
   </si>
@@ -336,9 +336,6 @@
     <t>ID/Date</t>
   </si>
   <si>
-    <t xml:space="preserve">? </t>
-  </si>
-  <si>
     <t>PCD</t>
   </si>
   <si>
@@ -352,9 +349,6 @@
   </si>
   <si>
     <t>% Mapped on 3D7 (STAR)</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
 </sst>
 </file>
@@ -362,7 +356,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="[$-40C]mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-40C]mmm\-yy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -411,12 +405,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,6 +498,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -602,47 +596,74 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -650,25 +671,16 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -677,16 +689,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -695,7 +698,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -704,139 +707,112 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="11" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="12" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="11" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -844,18 +820,36 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1185,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624507FE-6F09-094B-9CC7-53260F3B81E9}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1217,8 +1211,8 @@
       <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="89" t="s">
-        <v>108</v>
+      <c r="F1" s="81" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1237,7 +1231,7 @@
       <c r="E2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="69">
+      <c r="F2" s="63">
         <v>0.8427</v>
       </c>
     </row>
@@ -1257,19 +1251,19 @@
       <c r="E3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="69">
+      <c r="F3" s="63">
         <v>0.83089999999999997</v>
       </c>
-      <c r="I3" s="86" t="s">
+      <c r="I3" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="83"/>
+      <c r="K3" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="87"/>
-      <c r="K3" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="65"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="87"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="37" t="s">
@@ -1287,28 +1281,28 @@
       <c r="E4" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="69">
+      <c r="F4" s="63">
         <v>0.91610000000000003</v>
       </c>
       <c r="H4" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="I4" s="60">
+      <c r="I4" s="84">
         <v>42917</v>
       </c>
-      <c r="J4" s="60">
+      <c r="J4" s="84">
         <v>42644</v>
       </c>
-      <c r="K4" s="61">
+      <c r="K4" s="88">
         <v>42675</v>
       </c>
-      <c r="L4" s="61">
+      <c r="L4" s="88">
         <v>42705</v>
       </c>
-      <c r="M4" s="62">
+      <c r="M4" s="89">
         <v>42767</v>
       </c>
-      <c r="N4" s="61">
+      <c r="N4" s="88">
         <v>42826</v>
       </c>
     </row>
@@ -1328,7 +1322,7 @@
       <c r="E5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="64" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="37" t="s">
@@ -1349,13 +1343,13 @@
         <v>31</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D6" s="13">
         <v>42552</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F6" s="14">
         <v>0.72009999999999996</v>
@@ -1380,13 +1374,13 @@
         <v>33</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D7" s="13">
         <v>42552</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F7" s="14">
         <v>0.74380000000000002</v>
@@ -1411,13 +1405,13 @@
         <v>34</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D8" s="13">
         <v>42552</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F8" s="14">
         <v>0.73009999999999997</v>
@@ -1444,15 +1438,15 @@
         <v>36</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D9" s="51">
         <v>42552</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="71">
+        <v>13</v>
+      </c>
+      <c r="F9" s="65">
         <v>0.66449999999999998</v>
       </c>
       <c r="H9" s="24" t="s">
@@ -1475,15 +1469,15 @@
         <v>37</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D10" s="51">
         <v>42552</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="71">
+        <v>13</v>
+      </c>
+      <c r="F10" s="65">
         <v>0.67369999999999997</v>
       </c>
       <c r="H10" s="24" t="s">
@@ -1506,15 +1500,15 @@
         <v>38</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D11" s="51">
         <v>42552</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="71">
+        <v>13</v>
+      </c>
+      <c r="F11" s="65">
         <v>0.69679999999999997</v>
       </c>
       <c r="H11" s="24" t="s">
@@ -1537,15 +1531,15 @@
         <v>40</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D12" s="27">
         <v>42552</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="72">
+        <v>13</v>
+      </c>
+      <c r="F12" s="66">
         <v>0.15620000000000001</v>
       </c>
       <c r="H12" s="24" t="s">
@@ -1568,15 +1562,15 @@
         <v>41</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D13" s="27">
         <v>42552</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="72">
+        <v>13</v>
+      </c>
+      <c r="F13" s="66">
         <v>0.13450000000000001</v>
       </c>
       <c r="H13" s="24" t="s">
@@ -1599,15 +1593,15 @@
         <v>43</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D14" s="54">
         <v>42552</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="73">
+        <v>13</v>
+      </c>
+      <c r="F14" s="67">
         <v>0.65139999999999998</v>
       </c>
       <c r="H14" s="24" t="s">
@@ -1636,15 +1630,15 @@
         <v>45</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D15" s="54">
         <v>42552</v>
       </c>
       <c r="E15" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="73">
+        <v>13</v>
+      </c>
+      <c r="F15" s="67">
         <v>0.66269999999999996</v>
       </c>
       <c r="H15" s="24" t="s">
@@ -1667,15 +1661,15 @@
         <v>46</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D16" s="54">
         <v>42552</v>
       </c>
       <c r="E16" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="73">
+        <v>13</v>
+      </c>
+      <c r="F16" s="67">
         <v>0.66800000000000004</v>
       </c>
       <c r="H16" s="24" t="s">
@@ -1697,16 +1691,16 @@
       <c r="B17" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="67" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="68">
+      <c r="C17" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="62">
         <v>42552</v>
       </c>
-      <c r="E17" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="74">
+      <c r="E17" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="68">
         <v>0.58930000000000005</v>
       </c>
       <c r="H17" s="24" t="s">
@@ -1728,16 +1722,16 @@
       <c r="B18" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="67" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="68">
+      <c r="C18" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="62">
         <v>42552</v>
       </c>
-      <c r="E18" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="74">
+      <c r="E18" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="68">
         <v>0.61750000000000005</v>
       </c>
       <c r="N18"/>
@@ -1750,15 +1744,15 @@
         <v>51</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" s="36">
         <v>42644</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="75">
+        <v>13</v>
+      </c>
+      <c r="F19" s="69">
         <v>0.66659999999999997</v>
       </c>
       <c r="N19"/>
@@ -1771,28 +1765,28 @@
         <v>52</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" s="36">
         <v>42644</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="75">
+        <v>13</v>
+      </c>
+      <c r="F20" s="69">
         <v>0.68799999999999994</v>
       </c>
-      <c r="H20" s="66" t="s">
+      <c r="H20" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="I20" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
     </row>
     <row r="21" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="34" t="s">
@@ -1802,28 +1796,28 @@
         <v>53</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D21" s="36">
         <v>42644</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="66" t="s">
+      <c r="H21" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="I21" s="88" t="s">
-        <v>107</v>
-      </c>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
     </row>
     <row r="22" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
@@ -1833,13 +1827,13 @@
         <v>55</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D22" s="21">
         <v>42644</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F22" s="22">
         <v>0.71020000000000005</v>
@@ -1853,13 +1847,13 @@
         <v>56</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D23" s="21">
         <v>42644</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F23" s="22">
         <v>0.76970000000000005</v>
@@ -1873,13 +1867,13 @@
         <v>57</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D24" s="21">
         <v>42644</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F24" s="22">
         <v>0.70069999999999999</v>
@@ -1893,13 +1887,13 @@
         <v>59</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D25" s="5">
         <v>42644</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F25" s="6">
         <v>0.80359999999999998</v>
@@ -1913,13 +1907,13 @@
         <v>60</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D26" s="5">
         <v>42644</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F26" s="6">
         <v>0.80559999999999998</v>
@@ -1934,13 +1928,13 @@
         <v>61</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D27" s="5">
         <v>42644</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F27" s="6">
         <v>0.77969999999999995</v>
@@ -1954,15 +1948,15 @@
         <v>63</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D28" s="33">
         <v>42675</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="77">
+        <v>32</v>
+      </c>
+      <c r="F28" s="71">
         <v>0.23449999999999999</v>
       </c>
     </row>
@@ -1974,15 +1968,15 @@
         <v>64</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D29" s="33">
         <v>42675</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="77">
+        <v>32</v>
+      </c>
+      <c r="F29" s="71">
         <v>0.30059999999999998</v>
       </c>
     </row>
@@ -1994,15 +1988,15 @@
         <v>65</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D30" s="33">
         <v>42675</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="77">
+        <v>32</v>
+      </c>
+      <c r="F30" s="71">
         <v>0.24510000000000001</v>
       </c>
     </row>
@@ -2014,15 +2008,15 @@
         <v>66</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D31" s="33">
         <v>42675</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="77">
+        <v>32</v>
+      </c>
+      <c r="F31" s="71">
         <v>0.2878</v>
       </c>
     </row>
@@ -2034,13 +2028,13 @@
         <v>68</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D32" s="9">
         <v>42675</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F32" s="10">
         <v>0.63970000000000005</v>
@@ -2054,13 +2048,13 @@
         <v>69</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="9">
         <v>42675</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F33" s="10">
         <v>0.63729999999999998</v>
@@ -2074,13 +2068,13 @@
         <v>70</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="9">
         <v>42675</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F34" s="10">
         <v>0.66339999999999999</v>
@@ -2094,15 +2088,15 @@
         <v>72</v>
       </c>
       <c r="C35" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="51">
         <v>42675</v>
       </c>
       <c r="E35" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="71">
+        <v>32</v>
+      </c>
+      <c r="F35" s="65">
         <v>0.53769999999999996</v>
       </c>
     </row>
@@ -2114,13 +2108,13 @@
         <v>23</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="17">
         <v>42705</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F36" s="18">
         <v>0.59019999999999995</v>
@@ -2134,13 +2128,13 @@
         <v>24</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D37" s="17">
         <v>42705</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
         <v>0.62339999999999995</v>
@@ -2154,13 +2148,13 @@
         <v>25</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D38" s="17">
         <v>42705</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F38" s="18">
         <v>0.66279999999999994</v>
@@ -2174,15 +2168,15 @@
         <v>27</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D39" s="42">
         <v>42705</v>
       </c>
       <c r="E39" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="78">
+        <v>32</v>
+      </c>
+      <c r="F39" s="72">
         <v>0.59460000000000002</v>
       </c>
     </row>
@@ -2194,15 +2188,15 @@
         <v>28</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D40" s="42">
         <v>42705</v>
       </c>
       <c r="E40" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="78">
+        <v>32</v>
+      </c>
+      <c r="F40" s="72">
         <v>0.52739999999999998</v>
       </c>
     </row>
@@ -2214,15 +2208,15 @@
         <v>29</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D41" s="42">
         <v>42705</v>
       </c>
       <c r="E41" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="78">
+        <v>32</v>
+      </c>
+      <c r="F41" s="72">
         <v>0.51290000000000002</v>
       </c>
     </row>
@@ -2234,15 +2228,15 @@
         <v>15</v>
       </c>
       <c r="C42" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D42" s="45">
         <v>42767</v>
       </c>
       <c r="E42" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="79">
+        <v>32</v>
+      </c>
+      <c r="F42" s="73">
         <v>0.65349999999999997</v>
       </c>
     </row>
@@ -2254,15 +2248,15 @@
         <v>16</v>
       </c>
       <c r="C43" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D43" s="45">
         <v>42767</v>
       </c>
       <c r="E43" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="79">
+        <v>32</v>
+      </c>
+      <c r="F43" s="73">
         <v>0.69510000000000005</v>
       </c>
     </row>
@@ -2274,15 +2268,15 @@
         <v>17</v>
       </c>
       <c r="C44" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D44" s="45">
         <v>42767</v>
       </c>
       <c r="E44" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="79">
+        <v>32</v>
+      </c>
+      <c r="F44" s="73">
         <v>0.72940000000000005</v>
       </c>
     </row>
@@ -2294,15 +2288,15 @@
         <v>12</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D45" s="30">
         <v>42826</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="80">
+        <v>32</v>
+      </c>
+      <c r="F45" s="74">
         <v>0.38340000000000002</v>
       </c>
     </row>
@@ -2314,15 +2308,15 @@
         <v>19</v>
       </c>
       <c r="C46" s="47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D46" s="48">
         <v>42826</v>
       </c>
       <c r="E46" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="81">
+        <v>32</v>
+      </c>
+      <c r="F46" s="75">
         <v>0.62090000000000001</v>
       </c>
     </row>
@@ -2334,15 +2328,15 @@
         <v>20</v>
       </c>
       <c r="C47" s="47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D47" s="48">
         <v>42826</v>
       </c>
       <c r="E47" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="81">
+        <v>32</v>
+      </c>
+      <c r="F47" s="75">
         <v>0.64580000000000004</v>
       </c>
     </row>
@@ -2354,15 +2348,15 @@
         <v>21</v>
       </c>
       <c r="C48" s="47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D48" s="48">
         <v>42826</v>
       </c>
       <c r="E48" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="81">
+        <v>32</v>
+      </c>
+      <c r="F48" s="75">
         <v>0.67100000000000004</v>
       </c>
       <c r="I48"/>
@@ -2370,34 +2364,34 @@
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="55"/>
       <c r="B49" s="55"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="84"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="78"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="55"/>
       <c r="B50" s="55"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="84"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="78"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="55"/>
       <c r="B51" s="55"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="83"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="84"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="77"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="78"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="55"/>
       <c r="B52" s="55"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="83"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="85"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="79"/>
     </row>
   </sheetData>
   <sortState ref="H5:N17">

--- a/2020-09-02_Recap_Samples_BulkRNA.xlsx
+++ b/2020-09-02_Recap_Samples_BulkRNA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/COHEN/Documents/GitHub/Repositories/ProjetTuteure_BulkRNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DCC6E7-279D-E04F-8335-38A9C6727FCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DD4FDE-9816-5042-8E3B-137A2C0ABA20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8760" yWindow="-18960" windowWidth="20040" windowHeight="16840" xr2:uid="{9DAC21B7-805B-4C4D-8232-B803550C4E29}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23100" windowHeight="16840" xr2:uid="{9DAC21B7-805B-4C4D-8232-B803550C4E29}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -827,15 +827,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -845,10 +848,7 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1180,7 +1180,7 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1254,16 +1254,16 @@
       <c r="F3" s="63">
         <v>0.83089999999999997</v>
       </c>
-      <c r="I3" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="83"/>
-      <c r="K3" s="85" t="s">
+      <c r="I3" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="88"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="37" t="s">
@@ -1287,22 +1287,22 @@
       <c r="H4" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="I4" s="84">
+      <c r="I4" s="82">
         <v>42917</v>
       </c>
-      <c r="J4" s="84">
+      <c r="J4" s="82">
         <v>42644</v>
       </c>
-      <c r="K4" s="88">
+      <c r="K4" s="82">
         <v>42675</v>
       </c>
-      <c r="L4" s="88">
+      <c r="L4" s="83">
         <v>42705</v>
       </c>
-      <c r="M4" s="89">
+      <c r="M4" s="84">
         <v>42767</v>
       </c>
-      <c r="N4" s="88">
+      <c r="N4" s="83">
         <v>42826</v>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
         <v>42675</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F28" s="71">
         <v>0.23449999999999999</v>
@@ -1974,7 +1974,7 @@
         <v>42675</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F29" s="71">
         <v>0.30059999999999998</v>
@@ -1994,7 +1994,7 @@
         <v>42675</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F30" s="71">
         <v>0.24510000000000001</v>
@@ -2014,7 +2014,7 @@
         <v>42675</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F31" s="71">
         <v>0.2878</v>
@@ -2034,7 +2034,7 @@
         <v>42675</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F32" s="10">
         <v>0.63970000000000005</v>
@@ -2054,7 +2054,7 @@
         <v>42675</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F33" s="10">
         <v>0.63729999999999998</v>
@@ -2074,7 +2074,7 @@
         <v>42675</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F34" s="10">
         <v>0.66339999999999999</v>
@@ -2094,7 +2094,7 @@
         <v>42675</v>
       </c>
       <c r="E35" s="50" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F35" s="65">
         <v>0.53769999999999996</v>
@@ -2398,8 +2398,8 @@
     <sortCondition ref="H6"/>
   </sortState>
   <mergeCells count="2">
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
